--- a/excel/contrcat_10400.xlsx
+++ b/excel/contrcat_10400.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
     <sheet name="注文書台帳（リスト）" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'注文書台帳（リスト）'!$A$4:$AP$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'注文書台帳（リスト）'!$A$4:$AP$4</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
@@ -24,7 +24,7 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>1</t>
     <phoneticPr fontId="3"/>
@@ -447,200 +447,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1001</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>○○○</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>HAL×××</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>春　一番</t>
-    <rPh sb="0" eb="1">
-      <t>ハル</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチバン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ﾊﾙ ｲﾁﾊﾞﾝ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>△△△株式会社</t>
-    <rPh sb="3" eb="7">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>●●●株式会社</t>
-    <rPh sb="3" eb="7">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ﾏﾙﾏﾙｶﾌﾞｼｷｶﾞｲｼｬ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>稼働率</t>
-    <rPh sb="0" eb="2">
-      <t>カドウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>リツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>150</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>日割稼働率</t>
-    <rPh sb="0" eb="2">
-      <t>ヒワリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カドウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>リツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>20日</t>
-    <rPh sb="2" eb="3">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>翌々月1日</t>
-    <rPh sb="0" eb="2">
-      <t>ヨクヨク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ゲツ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>外</t>
-    <rPh sb="0" eb="1">
-      <t>ソト</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>請負</t>
-    <rPh sb="0" eb="2">
-      <t>ウケオイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1002</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>▼</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>春　二番</t>
-    <rPh sb="0" eb="1">
-      <t>ハル</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニバン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ﾊﾙ ﾆﾊﾞﾝ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>▼株式会社</t>
-    <rPh sb="1" eb="5">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>春　二番</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ﾊﾙ ﾆﾊﾞﾝ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>末日</t>
-    <rPh sb="0" eb="2">
-      <t>マツジツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>翌々月11日</t>
-    <rPh sb="0" eb="3">
-      <t>ヨクヨクゲツ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>1003</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>HAL×××</t>
-  </si>
-  <si>
-    <t>春　三番</t>
-    <rPh sb="0" eb="1">
-      <t>ハル</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サンバン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ﾊﾙ ｻﾝﾊﾞﾝ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>時給</t>
-    <rPh sb="0" eb="2">
-      <t>ジキュウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -731,7 +537,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1120,96 +926,6 @@
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1222,7 +938,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1237,45 +953,12 @@
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1306,42 +989,6 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1441,127 +1088,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="4" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1597,6 +1124,75 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1917,41 +1513,41 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AP7"/>
+  <dimension ref="A1:AP4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="107" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="108" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="109" customWidth="1"/>
-    <col min="4" max="5" width="10.625" style="110" customWidth="1"/>
-    <col min="6" max="6" width="9" style="111" customWidth="1"/>
-    <col min="7" max="8" width="10.625" style="110" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="111" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="112" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="109" customWidth="1"/>
-    <col min="12" max="13" width="10.625" style="110" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="107" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="113" customWidth="1"/>
-    <col min="16" max="16" width="10.625" style="114" customWidth="1"/>
-    <col min="17" max="17" width="8.125" style="110" customWidth="1"/>
-    <col min="18" max="19" width="10.625" style="110" customWidth="1"/>
-    <col min="20" max="21" width="10.625" style="107" customWidth="1"/>
-    <col min="22" max="22" width="10.625" style="110" customWidth="1"/>
-    <col min="23" max="23" width="9" style="110" customWidth="1"/>
-    <col min="24" max="24" width="9.625" style="90" customWidth="1"/>
-    <col min="25" max="25" width="9" style="90" customWidth="1"/>
-    <col min="26" max="27" width="9" style="107" customWidth="1"/>
-    <col min="28" max="29" width="9" style="90" customWidth="1"/>
-    <col min="30" max="31" width="9.125" style="90" customWidth="1"/>
-    <col min="32" max="41" width="9" style="90" customWidth="1"/>
-    <col min="42" max="42" width="10.25" style="115" customWidth="1"/>
-    <col min="43" max="16384" width="9" style="90"/>
+    <col min="1" max="1" width="10.625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="53" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="54" customWidth="1"/>
+    <col min="4" max="5" width="10.625" style="55" customWidth="1"/>
+    <col min="6" max="6" width="9" style="56" customWidth="1"/>
+    <col min="7" max="8" width="10.625" style="55" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="56" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="57" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="54" customWidth="1"/>
+    <col min="12" max="13" width="10.625" style="55" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="52" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="58" customWidth="1"/>
+    <col min="16" max="16" width="10.625" style="59" customWidth="1"/>
+    <col min="17" max="17" width="8.125" style="55" customWidth="1"/>
+    <col min="18" max="19" width="10.625" style="55" customWidth="1"/>
+    <col min="20" max="21" width="10.625" style="52" customWidth="1"/>
+    <col min="22" max="22" width="10.625" style="55" customWidth="1"/>
+    <col min="23" max="23" width="9" style="55" customWidth="1"/>
+    <col min="24" max="24" width="9.625" style="51" customWidth="1"/>
+    <col min="25" max="25" width="9" style="51" customWidth="1"/>
+    <col min="26" max="27" width="9" style="52" customWidth="1"/>
+    <col min="28" max="29" width="9" style="51" customWidth="1"/>
+    <col min="30" max="31" width="9.125" style="51" customWidth="1"/>
+    <col min="32" max="41" width="9" style="51" customWidth="1"/>
+    <col min="42" max="42" width="10.25" style="60" customWidth="1"/>
+    <col min="43" max="16384" width="9" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2078,550 +1674,262 @@
       <c r="AO1" s="3">
         <v>41</v>
       </c>
-      <c r="AP1" s="4">
+      <c r="AP1" s="4"/>
+    </row>
+    <row r="2" spans="1:42" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="7"/>
+      <c r="AK2" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="70"/>
+      <c r="AP2" s="71"/>
+    </row>
+    <row r="3" spans="1:42" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="78" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE3" s="82"/>
+      <c r="AF3" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG3" s="71"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="20"/>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="16"/>
+    </row>
+    <row r="4" spans="1:42" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="U4" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="W4" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="X4" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z4" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA4" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB4" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC4" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD4" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE4" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF4" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI4" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ4" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK4" s="48" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:42" s="19" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="15"/>
-      <c r="AK2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17"/>
-      <c r="AP2" s="18"/>
-    </row>
-    <row r="3" spans="1:42" s="19" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="23"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="41"/>
-      <c r="AO3" s="23"/>
-      <c r="AP3" s="27"/>
-    </row>
-    <row r="4" spans="1:42" s="19" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="R4" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="T4" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="U4" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="V4" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="W4" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="X4" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y4" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z4" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA4" s="64" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB4" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC4" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD4" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE4" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF4" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG4" s="68"/>
-      <c r="AH4" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI4" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ4" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="AK4" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL4" s="72" t="s">
+      <c r="AL4" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="AM4" s="72" t="s">
+      <c r="AM4" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="AN4" s="73" t="s">
+      <c r="AN4" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="AO4" s="72" t="s">
+      <c r="AO4" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="AP4" s="52" t="s">
+      <c r="AP4" s="29" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="75" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="76">
-        <v>39694</v>
-      </c>
-      <c r="D5" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="79">
-        <v>39630</v>
-      </c>
-      <c r="K5" s="76">
-        <v>39721</v>
-      </c>
-      <c r="L5" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="80">
-        <v>600000</v>
-      </c>
-      <c r="N5" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="O5" s="82">
-        <v>180</v>
-      </c>
-      <c r="P5" s="83">
-        <v>4000</v>
-      </c>
-      <c r="Q5" s="80">
-        <v>3300</v>
-      </c>
-      <c r="R5" s="84" t="s">
-        <v>58</v>
-      </c>
-      <c r="S5" s="84">
-        <v>200000</v>
-      </c>
-      <c r="T5" s="85">
-        <v>50</v>
-      </c>
-      <c r="U5" s="85">
-        <v>60</v>
-      </c>
-      <c r="V5" s="84">
-        <v>4000</v>
-      </c>
-      <c r="W5" s="84">
-        <v>3300</v>
-      </c>
-      <c r="X5" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y5" s="86">
-        <v>400000</v>
-      </c>
-      <c r="Z5" s="87">
-        <v>100</v>
-      </c>
-      <c r="AA5" s="87">
-        <v>120</v>
-      </c>
-      <c r="AB5" s="86">
-        <v>4000</v>
-      </c>
-      <c r="AC5" s="86">
-        <v>3300</v>
-      </c>
-      <c r="AD5" s="88">
-        <v>15</v>
-      </c>
-      <c r="AE5" s="88">
-        <v>30</v>
-      </c>
-      <c r="AF5" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG5" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH5" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI5" s="88"/>
-      <c r="AJ5" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK5" s="88"/>
-      <c r="AL5" s="88"/>
-      <c r="AM5" s="88"/>
-      <c r="AN5" s="88"/>
-      <c r="AO5" s="88"/>
-      <c r="AP5" s="89"/>
-    </row>
-    <row r="6" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="92" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="93">
-        <v>39694</v>
-      </c>
-      <c r="D6" s="94" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="94" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="94" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="95" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="96">
-        <v>39722</v>
-      </c>
-      <c r="K6" s="93">
-        <v>39813</v>
-      </c>
-      <c r="L6" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="97">
-        <v>600000</v>
-      </c>
-      <c r="N6" s="98" t="s">
-        <v>70</v>
-      </c>
-      <c r="O6" s="99">
-        <v>180</v>
-      </c>
-      <c r="P6" s="100">
-        <v>4000</v>
-      </c>
-      <c r="Q6" s="97">
-        <v>3300</v>
-      </c>
-      <c r="R6" s="101"/>
-      <c r="S6" s="101"/>
-      <c r="T6" s="102"/>
-      <c r="U6" s="102"/>
-      <c r="V6" s="101"/>
-      <c r="W6" s="101"/>
-      <c r="X6" s="103"/>
-      <c r="Y6" s="103"/>
-      <c r="Z6" s="104"/>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="103"/>
-      <c r="AC6" s="103"/>
-      <c r="AD6" s="105">
-        <v>15</v>
-      </c>
-      <c r="AE6" s="105">
-        <v>30</v>
-      </c>
-      <c r="AF6" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG6" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH6" s="105" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI6" s="105"/>
-      <c r="AJ6" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK6" s="105"/>
-      <c r="AL6" s="105"/>
-      <c r="AM6" s="105"/>
-      <c r="AN6" s="105"/>
-      <c r="AO6" s="105"/>
-      <c r="AP6" s="106"/>
-    </row>
-    <row r="7" spans="1:42" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="91" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="92" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="93">
-        <v>39694</v>
-      </c>
-      <c r="D7" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="94" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="95" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="94" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="95" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" s="96">
-        <v>39722</v>
-      </c>
-      <c r="K7" s="93">
-        <v>39752</v>
-      </c>
-      <c r="L7" s="97" t="s">
-        <v>78</v>
-      </c>
-      <c r="M7" s="97">
-        <v>4000</v>
-      </c>
-      <c r="N7" s="98"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="101"/>
-      <c r="W7" s="101"/>
-      <c r="X7" s="103"/>
-      <c r="Y7" s="103"/>
-      <c r="Z7" s="104"/>
-      <c r="AA7" s="104"/>
-      <c r="AB7" s="103"/>
-      <c r="AC7" s="103"/>
-      <c r="AD7" s="105">
-        <v>15</v>
-      </c>
-      <c r="AE7" s="105">
-        <v>30</v>
-      </c>
-      <c r="AF7" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG7" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH7" s="105" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI7" s="105"/>
-      <c r="AJ7" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK7" s="105"/>
-      <c r="AL7" s="105"/>
-      <c r="AM7" s="105"/>
-      <c r="AN7" s="105"/>
-      <c r="AO7" s="105"/>
-      <c r="AP7" s="106"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:AP7"/>
+  <autoFilter ref="A4:AP4"/>
   <mergeCells count="9">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>

--- a/excel/contrcat_10400.xlsx
+++ b/excel/contrcat_10400.xlsx
@@ -977,9 +977,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1107,9 +1104,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1125,6 +1119,9 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -1193,6 +1190,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1517,37 +1517,37 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="52" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="53" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="54" customWidth="1"/>
-    <col min="4" max="5" width="10.625" style="55" customWidth="1"/>
-    <col min="6" max="6" width="9" style="56" customWidth="1"/>
-    <col min="7" max="8" width="10.625" style="55" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="56" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="57" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="54" customWidth="1"/>
-    <col min="12" max="13" width="10.625" style="55" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="52" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="58" customWidth="1"/>
-    <col min="16" max="16" width="10.625" style="59" customWidth="1"/>
-    <col min="17" max="17" width="8.125" style="55" customWidth="1"/>
-    <col min="18" max="19" width="10.625" style="55" customWidth="1"/>
-    <col min="20" max="21" width="10.625" style="52" customWidth="1"/>
-    <col min="22" max="22" width="10.625" style="55" customWidth="1"/>
-    <col min="23" max="23" width="9" style="55" customWidth="1"/>
-    <col min="24" max="24" width="9.625" style="51" customWidth="1"/>
-    <col min="25" max="25" width="9" style="51" customWidth="1"/>
-    <col min="26" max="27" width="9" style="52" customWidth="1"/>
-    <col min="28" max="29" width="9" style="51" customWidth="1"/>
-    <col min="30" max="31" width="9.125" style="51" customWidth="1"/>
-    <col min="32" max="41" width="9" style="51" customWidth="1"/>
-    <col min="42" max="42" width="10.25" style="60" customWidth="1"/>
-    <col min="43" max="16384" width="9" style="51"/>
+    <col min="1" max="1" width="10.625" style="51" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="52" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="53" customWidth="1"/>
+    <col min="4" max="5" width="10.625" style="54" customWidth="1"/>
+    <col min="6" max="6" width="9" style="83" customWidth="1"/>
+    <col min="7" max="8" width="10.625" style="54" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="83" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="55" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="53" customWidth="1"/>
+    <col min="12" max="13" width="10.625" style="54" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="51" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="56" customWidth="1"/>
+    <col min="16" max="16" width="10.625" style="57" customWidth="1"/>
+    <col min="17" max="17" width="8.125" style="54" customWidth="1"/>
+    <col min="18" max="19" width="10.625" style="54" customWidth="1"/>
+    <col min="20" max="21" width="10.625" style="51" customWidth="1"/>
+    <col min="22" max="22" width="10.625" style="54" customWidth="1"/>
+    <col min="23" max="23" width="9" style="54" customWidth="1"/>
+    <col min="24" max="24" width="9.625" style="50" customWidth="1"/>
+    <col min="25" max="25" width="9" style="50" customWidth="1"/>
+    <col min="26" max="27" width="9" style="51" customWidth="1"/>
+    <col min="28" max="29" width="9" style="50" customWidth="1"/>
+    <col min="30" max="31" width="9.125" style="50" customWidth="1"/>
+    <col min="32" max="41" width="9" style="50" customWidth="1"/>
+    <col min="42" max="42" width="10.25" style="58" customWidth="1"/>
+    <col min="43" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1677,58 +1677,58 @@
       <c r="AP1" s="4"/>
     </row>
     <row r="2" spans="1:42" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="66"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
       <c r="AJ2" s="7"/>
-      <c r="AK2" s="69" t="s">
+      <c r="AK2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="AL2" s="70"/>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="70"/>
-      <c r="AO2" s="70"/>
-      <c r="AP2" s="71"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="70"/>
     </row>
     <row r="3" spans="1:42" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
@@ -1745,186 +1745,186 @@
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="59" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="72" t="s">
+      <c r="L3" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="75" t="s">
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="78" t="s">
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="79"/>
-      <c r="AA3" s="79"/>
-      <c r="AB3" s="79"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="81" t="s">
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="83" t="s">
+      <c r="AE3" s="81"/>
+      <c r="AF3" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="AG3" s="71"/>
+      <c r="AG3" s="70"/>
       <c r="AH3" s="12"/>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="15"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="14"/>
       <c r="AL3" s="12"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="18"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="17"/>
       <c r="AO3" s="12"/>
-      <c r="AP3" s="16"/>
+      <c r="AP3" s="15"/>
     </row>
     <row r="4" spans="1:42" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="32" t="s">
+      <c r="P4" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="34" t="s">
+      <c r="Q4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="35" t="s">
+      <c r="R4" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="36" t="s">
+      <c r="S4" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="37" t="s">
+      <c r="T4" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="37" t="s">
+      <c r="U4" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="36" t="s">
+      <c r="V4" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="38" t="s">
+      <c r="W4" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="39" t="s">
+      <c r="X4" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="Y4" s="40" t="s">
+      <c r="Y4" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="Z4" s="41" t="s">
+      <c r="Z4" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="AA4" s="41" t="s">
+      <c r="AA4" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="AB4" s="40" t="s">
+      <c r="AB4" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="AC4" s="42" t="s">
+      <c r="AC4" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="AD4" s="43" t="s">
+      <c r="AD4" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="AE4" s="44" t="s">
+      <c r="AE4" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="AF4" s="45" t="s">
+      <c r="AF4" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AG4" s="45"/>
-      <c r="AH4" s="21" t="s">
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AI4" s="46" t="s">
+      <c r="AI4" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="AJ4" s="47" t="s">
+      <c r="AJ4" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="AK4" s="48" t="s">
+      <c r="AK4" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="AL4" s="49" t="s">
+      <c r="AL4" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="AM4" s="49" t="s">
+      <c r="AM4" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AN4" s="50" t="s">
+      <c r="AN4" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="AO4" s="49" t="s">
+      <c r="AO4" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="AP4" s="29" t="s">
+      <c r="AP4" s="28" t="s">
         <v>47</v>
       </c>
     </row>

--- a/excel/contrcat_10400.xlsx
+++ b/excel/contrcat_10400.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
     <sheet name="注文書台帳（リスト）" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'注文書台帳（リスト）'!$A$4:$AP$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'注文書台帳（リスト）'!$A$4:$AO$4</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
@@ -24,7 +24,7 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>1</t>
     <phoneticPr fontId="3"/>
@@ -374,17 +374,6 @@
     </rPh>
     <rPh sb="1" eb="2">
       <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>消費税
-区分</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒゼイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>クブン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1122,6 +1111,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -1190,9 +1182,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1513,11 +1502,11 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AP4"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1526,9 +1515,9 @@
     <col min="2" max="2" width="10.625" style="52" customWidth="1"/>
     <col min="3" max="3" width="12.375" style="53" customWidth="1"/>
     <col min="4" max="5" width="10.625" style="54" customWidth="1"/>
-    <col min="6" max="6" width="9" style="83" customWidth="1"/>
+    <col min="6" max="6" width="9" style="60" customWidth="1"/>
     <col min="7" max="8" width="10.625" style="54" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="83" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="60" customWidth="1"/>
     <col min="10" max="10" width="10.625" style="55" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="53" customWidth="1"/>
     <col min="12" max="13" width="10.625" style="54" customWidth="1"/>
@@ -1545,12 +1534,12 @@
     <col min="26" max="27" width="9" style="51" customWidth="1"/>
     <col min="28" max="29" width="9" style="50" customWidth="1"/>
     <col min="30" max="31" width="9.125" style="50" customWidth="1"/>
-    <col min="32" max="41" width="9" style="50" customWidth="1"/>
-    <col min="42" max="42" width="10.25" style="58" customWidth="1"/>
-    <col min="43" max="16384" width="9" style="50"/>
+    <col min="32" max="40" width="9" style="50" customWidth="1"/>
+    <col min="41" max="41" width="10.25" style="58" customWidth="1"/>
+    <col min="42" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:41" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1650,87 +1639,83 @@
       <c r="AG1" s="3">
         <v>33</v>
       </c>
-      <c r="AH1" s="2">
-        <v>34</v>
-      </c>
-      <c r="AI1" s="3">
+      <c r="AH1" s="3">
         <v>35</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AI1" s="2">
         <v>36</v>
       </c>
-      <c r="AK1" s="3">
+      <c r="AJ1" s="3">
         <v>37</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AK1" s="2">
         <v>38</v>
       </c>
-      <c r="AM1" s="3">
+      <c r="AL1" s="3">
         <v>39</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AM1" s="2">
         <v>40</v>
       </c>
-      <c r="AO1" s="3">
+      <c r="AN1" s="3">
         <v>41</v>
       </c>
-      <c r="AP1" s="4"/>
+      <c r="AO1" s="4"/>
     </row>
-    <row r="2" spans="1:42" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:41" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="63" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="68" t="s">
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="70"/>
+      <c r="AK2" s="70"/>
+      <c r="AL2" s="70"/>
+      <c r="AM2" s="70"/>
+      <c r="AN2" s="70"/>
+      <c r="AO2" s="71"/>
     </row>
-    <row r="3" spans="1:42" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:41" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -1760,49 +1745,48 @@
       <c r="K3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="71" t="s">
+      <c r="L3" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="74" t="s">
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="77" t="s">
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="80" t="s">
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="82" t="s">
+      <c r="AE3" s="82"/>
+      <c r="AF3" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="AG3" s="70"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="17"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="17"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="15"/>
+      <c r="AG3" s="71"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="15"/>
     </row>
-    <row r="4" spans="1:42" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>19</v>
       </c>
@@ -1900,41 +1884,38 @@
         <v>38</v>
       </c>
       <c r="AG4" s="44"/>
-      <c r="AH4" s="20" t="s">
+      <c r="AH4" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="AI4" s="45" t="s">
+      <c r="AI4" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="AJ4" s="46" t="s">
+      <c r="AJ4" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="AK4" s="47" t="s">
+      <c r="AK4" s="48" t="s">
         <v>42</v>
       </c>
       <c r="AL4" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="AM4" s="48" t="s">
+      <c r="AM4" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="AN4" s="49" t="s">
+      <c r="AN4" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="AO4" s="48" t="s">
+      <c r="AO4" s="28" t="s">
         <v>46</v>
-      </c>
-      <c r="AP4" s="28" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:AP4"/>
+  <autoFilter ref="A4:AO4"/>
   <mergeCells count="9">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="H2:AI2"/>
-    <mergeCell ref="AK2:AP2"/>
+    <mergeCell ref="H2:AH2"/>
+    <mergeCell ref="AJ2:AO2"/>
     <mergeCell ref="L3:Q3"/>
     <mergeCell ref="R3:W3"/>
     <mergeCell ref="X3:AC3"/>

--- a/excel/contrcat_10400.xlsx
+++ b/excel/contrcat_10400.xlsx
@@ -1506,12 +1506,12 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="51" customWidth="1"/>
+    <col min="1" max="1" width="0.875" style="51" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="52" customWidth="1"/>
     <col min="3" max="3" width="12.375" style="53" customWidth="1"/>
     <col min="4" max="5" width="10.625" style="54" customWidth="1"/>
